--- a/custom-graders/spreadsheet-grader/examples/random_test_data/submission/submission.xlsx
+++ b/custom-graders/spreadsheet-grader/examples/random_test_data/submission/submission.xlsx
@@ -13,15 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>Constant</t>
+    <t>A</t>
   </si>
   <si>
-    <t>Random</t>
+    <t>B (will be replaced with random values by grader spreadsheet)</t>
   </si>
   <si>
-    <t>Sum</t>
+    <t>A + B</t>
+  </si>
+  <si>
+    <t>Computed sum</t>
+  </si>
+  <si>
+    <t>Static value, not computed</t>
   </si>
 </sst>
 </file>
@@ -57,12 +63,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -72,31 +78,75 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -105,13 +155,13 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,35 +171,47 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -169,10 +231,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1267,17 +1329,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="19.6016" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6016" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.3984" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6016" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.6016" style="1" customWidth="1"/>
-    <col min="5" max="256" width="19.6016" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6016" style="1" customWidth="1"/>
+    <col min="6" max="256" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.35" customHeight="1">
@@ -1289,79 +1352,90 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="14.35" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <f t="shared" si="0" ref="B2:B6">RAND()</f>
-        <v>0.5408684571926253</v>
+      <c r="B2" s="5">
+        <v>0.5</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="14.35" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5715421608948443</v>
+      <c r="B3" s="5">
+        <v>0.5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="14.35" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.2291443338142269</v>
+      <c r="B4" s="5">
+        <v>0.5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.2882621870040108</v>
+      <c r="B5" s="5">
+        <v>0.5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.4878813999690412</v>
+      <c r="B6" s="5">
+        <v>0.5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -1383,149 +1457,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.4" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.4219" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.4219" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.4219" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.4219" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.4219" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.4219" style="5" customWidth="1"/>
-    <col min="7" max="256" width="16.4219" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.4219" style="10" customWidth="1"/>
+    <col min="2" max="2" width="42.2578" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.4219" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.4219" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.4219" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.4219" style="10" customWidth="1"/>
+    <col min="7" max="256" width="16.4219" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
-      <c r="A1" t="s" s="6">
+      <c r="A1" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="12">
         <f>'_data'!A2+'_data'!B2</f>
-        <v>1.540868457192625</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <f>'_data'!A5+'_data'!B5</f>
-        <v>4.288262187004011</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="12">
         <f>'_data'!A6+'_data'!B6</f>
-        <v>5.487881399969041</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
